--- a/RNN_Stopping_Grid/Data2/Search/Optim Graphs/hn-e.xlsx
+++ b/RNN_Stopping_Grid/Data2/Search/Optim Graphs/hn-e.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\RNN_Stopping_Grid\Data2\Search\Optim Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13D8A8A-816C-40A0-874A-147BC59E1B52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86567DF7-2F3F-4649-8C59-E38491FDE999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D7F59AF-0C8E-4BFE-8F45-5779465829CD}"/>
   </bookViews>
@@ -120,7 +120,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="9"/>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-AC5E-4066-8F2C-DCE7F769FAEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -134,7 +153,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-AC5E-4066-8F2C-DCE7F769FAEA}"/>
+                <c16:uniqueId val="{00000005-23EB-428A-ADE6-B812893356B2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -148,7 +167,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>227</a:t>
+                      <a:t>85</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -176,7 +195,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>31</a:t>
+                      <a:t>115</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -204,7 +223,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>177</a:t>
+                      <a:t>48</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -232,7 +251,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>30</a:t>
+                      <a:t>51</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -260,7 +279,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>46</a:t>
+                      <a:t>42</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -288,7 +307,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>51</a:t>
+                      <a:t>13</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -316,7 +335,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>26</a:t>
+                      <a:t>40</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -344,7 +363,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>44</a:t>
+                      <a:t>39</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -372,7 +391,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>30</a:t>
+                      <a:t>13</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -400,7 +419,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>54</a:t>
+                      <a:t>17</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -416,6 +435,258 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-AC5E-4066-8F2C-DCE7F769FAEA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>6</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-23EB-428A-ADE6-B812893356B2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>29</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-23EB-428A-ADE6-B812893356B2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>21</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-23EB-428A-ADE6-B812893356B2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>30</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-23EB-428A-ADE6-B812893356B2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>12</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-23EB-428A-ADE6-B812893356B2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>15</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-23EB-428A-ADE6-B812893356B2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>22</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-23EB-428A-ADE6-B812893356B2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>8</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-23EB-428A-ADE6-B812893356B2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>10</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-23EB-428A-ADE6-B812893356B2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -478,38 +749,65 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$3:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -517,39 +815,66 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>Sheet1!$C$3:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>8.2000000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7.1999999999999998E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.8000000000000005E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.1999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.7000000000000002E-3</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1999999999999998E-3</c:v>
+                  <c:v>5.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2000000000000007E-3</c:v>
+                  <c:v>6.8999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1000000000000004E-3</c:v>
+                  <c:v>4.8999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>5.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>6.3E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.6E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.1000000000000004E-3</c:v>
+                <c:pt idx="10">
+                  <c:v>7.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.8999999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -842,7 +1167,453 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-473D-4AD8-8EE1-1A9CDC99F400}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1965597712"/>
+        <c:axId val="1953880352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1965597712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1953880352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1953880352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1965597712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1385,20 +2156,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>522287</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>255587</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>84772</xdr:rowOff>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>27622</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1418,6 +2705,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6919A20-7289-4E3F-8281-2D6427BEDA70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1723,122 +3046,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E74AE2-41C7-461B-B0E5-ABA0E1853C14}">
-  <dimension ref="B2:D11"/>
+  <dimension ref="B3:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="D3">
+        <v>85</v>
+      </c>
+      <c r="E3">
+        <f>D3</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="D4">
+        <v>115</v>
+      </c>
+      <c r="E4">
+        <f>(E3+D4)/2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>7.6E-3</v>
+      </c>
+      <c r="D5">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <f>(D3+D4+D5)/3</f>
+        <v>82.666666666666671</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="D2">
-        <v>227</v>
+      <c r="D6">
+        <v>51</v>
+      </c>
+      <c r="E6">
+        <f>SUM(D3:D6)/4</f>
+        <v>74.75</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="D3">
-        <v>31</v>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="D7">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <f>SUM(D3:D7)/5</f>
+        <v>68.2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <f>SUM(D3:D8)/6</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <f>SUM(D3:D9)/7</f>
+        <v>56.285714285714285</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="D10">
+        <v>39</v>
+      </c>
+      <c r="E10">
+        <f>SUM(D3:D10)/8</f>
+        <v>54.125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <f>SUM(D3:D11)/9</f>
+        <v>49.555555555555557</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>6.3E-3</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <f>SUM(D3:D12)/10</f>
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="D13">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="D4">
-        <v>177</v>
+      <c r="E13">
+        <f>SUM(D3:D13)/11</f>
+        <v>42.636363636363633</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="D14">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <f>SUM(D3:D14)/12</f>
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D15">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <f>SUM(D3:D15)/13</f>
+        <v>39.92307692307692</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <f>SUM(D3:D16)/14</f>
+        <v>39.214285714285715</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <f>SUM(D3:D17)/15</f>
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <f>SUM(D3:D18)/16</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>4.3E-3</v>
+      </c>
+      <c r="D19">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <f>SUM(D3:D19)/17</f>
+        <v>35.176470588235297</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D20">
         <v>8</v>
       </c>
-      <c r="C5">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="D5">
-        <v>30</v>
+      <c r="E20">
+        <f>SUM(D3:D20)/18</f>
+        <v>33.666666666666664</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="D21">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="D6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="D7">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="D8">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>6.3E-3</v>
-      </c>
-      <c r="D9">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>18</v>
-      </c>
-      <c r="C10">
-        <v>6.6E-3</v>
-      </c>
-      <c r="D10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="D11">
-        <v>54</v>
+      <c r="E21">
+        <f>SUM(D3:D21)/19</f>
+        <v>32.421052631578945</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_Stopping_Grid/Data2/Search/Optim Graphs/hn-e.xlsx
+++ b/RNN_Stopping_Grid/Data2/Search/Optim Graphs/hn-e.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\RNN_Stopping_Grid\Data2\Search\Optim Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86567DF7-2F3F-4649-8C59-E38491FDE999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3E7D8D-9C18-49A2-84B2-D25BB22E1B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D7F59AF-0C8E-4BFE-8F45-5779465829CD}"/>
   </bookViews>
@@ -170,6 +170,16 @@
                       <a:t>85</a:t>
                     </a:r>
                   </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>25</a:t>
+                    </a:r>
+                  </a:p>
                 </c:rich>
               </c:tx>
               <c:dLblPos val="outEnd"/>
@@ -180,7 +190,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-AC5E-4066-8F2C-DCE7F769FAEA}"/>
                 </c:ext>
@@ -196,6 +208,16 @@
                     <a:r>
                       <a:rPr lang="en-US"/>
                       <a:t>115</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>39</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -208,7 +230,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-AC5E-4066-8F2C-DCE7F769FAEA}"/>
                 </c:ext>
@@ -224,6 +248,16 @@
                     <a:r>
                       <a:rPr lang="en-US"/>
                       <a:t>48</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>55</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -236,7 +270,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-AC5E-4066-8F2C-DCE7F769FAEA}"/>
                 </c:ext>
@@ -252,6 +288,16 @@
                     <a:r>
                       <a:rPr lang="en-US"/>
                       <a:t>51</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>73</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -264,7 +310,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-AC5E-4066-8F2C-DCE7F769FAEA}"/>
                 </c:ext>
@@ -280,6 +328,16 @@
                     <a:r>
                       <a:rPr lang="en-US"/>
                       <a:t>42</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>93</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -292,7 +350,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-AC5E-4066-8F2C-DCE7F769FAEA}"/>
                 </c:ext>
@@ -308,6 +368,16 @@
                     <a:r>
                       <a:rPr lang="en-US"/>
                       <a:t>13</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>115</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -320,7 +390,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-AC5E-4066-8F2C-DCE7F769FAEA}"/>
                 </c:ext>
@@ -336,6 +408,16 @@
                     <a:r>
                       <a:rPr lang="en-US"/>
                       <a:t>40</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>139</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -348,7 +430,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-AC5E-4066-8F2C-DCE7F769FAEA}"/>
                 </c:ext>
@@ -364,6 +448,16 @@
                     <a:r>
                       <a:rPr lang="en-US"/>
                       <a:t>39</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>165</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -376,7 +470,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-AC5E-4066-8F2C-DCE7F769FAEA}"/>
                 </c:ext>
@@ -392,6 +488,16 @@
                     <a:r>
                       <a:rPr lang="en-US"/>
                       <a:t>13</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>193</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -404,7 +510,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-AC5E-4066-8F2C-DCE7F769FAEA}"/>
                 </c:ext>
@@ -420,6 +528,16 @@
                     <a:r>
                       <a:rPr lang="en-US"/>
                       <a:t>17</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>223</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -432,7 +550,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-AC5E-4066-8F2C-DCE7F769FAEA}"/>
                 </c:ext>
@@ -448,6 +568,16 @@
                     <a:r>
                       <a:rPr lang="en-US"/>
                       <a:t>6</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>255</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -460,7 +590,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-23EB-428A-ADE6-B812893356B2}"/>
                 </c:ext>
@@ -476,6 +608,16 @@
                     <a:r>
                       <a:rPr lang="en-US"/>
                       <a:t>29</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>289</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -488,7 +630,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-23EB-428A-ADE6-B812893356B2}"/>
                 </c:ext>
@@ -504,6 +648,16 @@
                     <a:r>
                       <a:rPr lang="en-US"/>
                       <a:t>21</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>325</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -516,7 +670,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-23EB-428A-ADE6-B812893356B2}"/>
                 </c:ext>
@@ -532,6 +688,16 @@
                     <a:r>
                       <a:rPr lang="en-US"/>
                       <a:t>30</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>363</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -544,7 +710,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-23EB-428A-ADE6-B812893356B2}"/>
                 </c:ext>
@@ -560,6 +728,16 @@
                     <a:r>
                       <a:rPr lang="en-US"/>
                       <a:t>12</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>403</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -572,7 +750,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-23EB-428A-ADE6-B812893356B2}"/>
                 </c:ext>
@@ -588,6 +768,16 @@
                     <a:r>
                       <a:rPr lang="en-US"/>
                       <a:t>15</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>445</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -600,7 +790,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-23EB-428A-ADE6-B812893356B2}"/>
                 </c:ext>
@@ -616,6 +808,16 @@
                     <a:r>
                       <a:rPr lang="en-US"/>
                       <a:t>22</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>489</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -628,7 +830,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-23EB-428A-ADE6-B812893356B2}"/>
                 </c:ext>
@@ -644,6 +848,16 @@
                     <a:r>
                       <a:rPr lang="en-US"/>
                       <a:t>8</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>535</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -656,7 +870,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-23EB-428A-ADE6-B812893356B2}"/>
                 </c:ext>
@@ -672,6 +888,16 @@
                     <a:r>
                       <a:rPr lang="en-US"/>
                       <a:t>10</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>583</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -684,7 +910,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-23EB-428A-ADE6-B812893356B2}"/>
                 </c:ext>
@@ -1139,12 +1367,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3046,15 +3269,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E74AE2-41C7-461B-B0E5-ABA0E1853C14}">
-  <dimension ref="B3:E21"/>
+  <dimension ref="B3:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -3068,8 +3291,12 @@
         <f>D3</f>
         <v>85</v>
       </c>
+      <c r="F3">
+        <f>(B3*5)+(B3*B3) + B3 + (3*B3) + 3</f>
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -3083,8 +3310,12 @@
         <f>(E3+D4)/2</f>
         <v>100</v>
       </c>
+      <c r="F4">
+        <f>(B4*5)+(B4*B4) + B4 + (3*B4) + 3</f>
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -3098,8 +3329,12 @@
         <f>(D3+D4+D5)/3</f>
         <v>82.666666666666671</v>
       </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F21" si="0">(B5*5)+(B5*B5) + B5 + (3*B5) + 3</f>
+        <v>55</v>
+      </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -3113,8 +3348,12 @@
         <f>SUM(D3:D6)/4</f>
         <v>74.75</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -3128,8 +3367,12 @@
         <f>SUM(D3:D7)/5</f>
         <v>68.2</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -3143,8 +3386,12 @@
         <f>SUM(D3:D8)/6</f>
         <v>59</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -3158,8 +3405,12 @@
         <f>SUM(D3:D9)/7</f>
         <v>56.285714285714285</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
@@ -3173,8 +3424,12 @@
         <f>SUM(D3:D10)/8</f>
         <v>54.125</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
@@ -3188,8 +3443,12 @@
         <f>SUM(D3:D11)/9</f>
         <v>49.555555555555557</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11</v>
       </c>
@@ -3203,8 +3462,12 @@
         <f>SUM(D3:D12)/10</f>
         <v>46.3</v>
       </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>12</v>
       </c>
@@ -3218,8 +3481,12 @@
         <f>SUM(D3:D13)/11</f>
         <v>42.636363636363633</v>
       </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>13</v>
       </c>
@@ -3233,8 +3500,12 @@
         <f>SUM(D3:D14)/12</f>
         <v>41.5</v>
       </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>289</v>
+      </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>14</v>
       </c>
@@ -3248,8 +3519,12 @@
         <f>SUM(D3:D15)/13</f>
         <v>39.92307692307692</v>
       </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>15</v>
       </c>
@@ -3263,8 +3538,12 @@
         <f>SUM(D3:D16)/14</f>
         <v>39.214285714285715</v>
       </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>363</v>
+      </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>16</v>
       </c>
@@ -3278,8 +3557,12 @@
         <f>SUM(D3:D17)/15</f>
         <v>37.4</v>
       </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>403</v>
+      </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>17</v>
       </c>
@@ -3293,8 +3576,12 @@
         <f>SUM(D3:D18)/16</f>
         <v>36</v>
       </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>445</v>
+      </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>18</v>
       </c>
@@ -3308,8 +3595,12 @@
         <f>SUM(D3:D19)/17</f>
         <v>35.176470588235297</v>
       </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>489</v>
+      </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>19</v>
       </c>
@@ -3323,8 +3614,12 @@
         <f>SUM(D3:D20)/18</f>
         <v>33.666666666666664</v>
       </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>535</v>
+      </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>20</v>
       </c>
@@ -3337,6 +3632,10 @@
       <c r="E21">
         <f>SUM(D3:D21)/19</f>
         <v>32.421052631578945</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
